--- a/CCBC Treasurer/21-22/Racking Fees.xlsx
+++ b/CCBC Treasurer/21-22/Racking Fees.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam Drury\Documents\CAMBRIDGE\CCBC\CCBC Treasurer\20-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam Drury\Documents\CAMBRIDGE\CCBC\CCBC Treasurer\21-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47677EE2-70E0-4057-A556-BF17F9C5601C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C6CAB4-6EFA-48B3-A22D-7759DACB85E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D3DBFE71-BFDF-4D2C-8A31-C60C19E67187}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3DBFE71-BFDF-4D2C-8A31-C60C19E67187}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>exp 30/09/21</t>
   </si>
   <si>
-    <t>2020-2021</t>
-  </si>
-  <si>
     <t>Invoiced 07/01/21</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>exp. 30/04/22</t>
+  </si>
+  <si>
+    <t>2021-2022</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,7 +565,7 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
@@ -604,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -618,10 +618,10 @@
         <v>44681</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
         <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
